--- a/homework/BiernackiHomework/BiernackiCladeProbabilities.xlsx
+++ b/homework/BiernackiHomework/BiernackiCladeProbabilities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbabbbie/Documents/ClassDocuments/CompPhylo/RB_CTMC_Tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbabbbie/Documents/ClassDocuments/CompPhylo/week10_PhylogeneticGraphicalModels/homework/BiernackiHomework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E828F21A-C1F4-0442-882C-9D7D9349695D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E471347-5E90-7441-B7AB-B1658869BF45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{E5F5D315-9A25-E444-8A6D-4A0384396AD4}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{E5F5D315-9A25-E444-8A6D-4A0384396AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>GTR</t>
+  </si>
+  <si>
+    <t>GTR+G</t>
+  </si>
+  <si>
+    <t>GTR+G+I</t>
   </si>
 </sst>
 </file>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3DDAA-58C7-E74F-B573-717242F3636E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,6 +529,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.999</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
